--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="209" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1463" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>
@@ -1142,10 +1142,10 @@
         <v>124.50807692307683</v>
       </c>
       <c r="P19" s="0">
-        <v>59.720951008334417</v>
+        <v>59.82145489760461</v>
       </c>
       <c r="Q19" s="0">
-        <v>57.017462445790393</v>
+        <v>56.969700048919947</v>
       </c>
     </row>
     <row r="20">
@@ -2830,9 +2830,11 @@
         <v>83.158139318497049</v>
       </c>
       <c r="P51" s="0">
-        <v>65535</v>
-      </c>
-      <c r="Q51" s="0"/>
+        <v>56.220744202549618</v>
+      </c>
+      <c r="Q51" s="0">
+        <v>19.425478785356162</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
@@ -2934,9 +2936,11 @@
         <v>320.97552634128039</v>
       </c>
       <c r="P53" s="0">
-        <v>65535</v>
-      </c>
-      <c r="Q53" s="0"/>
+        <v>114.90023813898675</v>
+      </c>
+      <c r="Q53" s="0">
+        <v>50.044468626942816</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
@@ -3091,9 +3095,11 @@
         <v>158.54349546179873</v>
       </c>
       <c r="P56" s="0">
-        <v>65535</v>
-      </c>
-      <c r="Q56" s="0"/>
+        <v>61.087244108135195</v>
+      </c>
+      <c r="Q56" s="0">
+        <v>23.644092541978718</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
@@ -3354,10 +3360,10 @@
         <v>1.8994763552843577</v>
       </c>
       <c r="P61" s="0">
-        <v>42.611982644485956</v>
+        <v>42.385652341041457</v>
       </c>
       <c r="Q61" s="0">
-        <v>9.8438187406455917</v>
+        <v>9.7041622791667983</v>
       </c>
     </row>
     <row r="62">
@@ -3407,9 +3413,11 @@
         <v>142.6828567917467</v>
       </c>
       <c r="P62" s="0">
-        <v>65535</v>
-      </c>
-      <c r="Q62" s="0"/>
+        <v>37.897737798460241</v>
+      </c>
+      <c r="Q62" s="0">
+        <v>17.144928103836946</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1463" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1672" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1672" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1881" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1881" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2299" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2299" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2508" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2508" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2717" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2717" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2926" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_SA_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2926" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3344" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>
@@ -345,10 +345,10 @@
         <v>39.074714756902999</v>
       </c>
       <c r="N4" s="0">
-        <v>52.333622710622642</v>
+        <v>19.210051282051221</v>
       </c>
       <c r="O4" s="0">
-        <v>42.862558494640218</v>
+        <v>9.8931001641210443</v>
       </c>
       <c r="P4" s="0">
         <v>71.09851981539795</v>
@@ -451,10 +451,10 @@
         <v>40.648903224236363</v>
       </c>
       <c r="N6" s="0">
-        <v>88.753502274607158</v>
+        <v>38.396814774607172</v>
       </c>
       <c r="O6" s="0">
-        <v>77.570320102848825</v>
+        <v>27.688418551439629</v>
       </c>
       <c r="P6" s="0">
         <v>197.80043177866068</v>
@@ -504,10 +504,10 @@
         <v>76</v>
       </c>
       <c r="N7" s="0">
-        <v>306.60727160493815</v>
+        <v>5.3057716049382249</v>
       </c>
       <c r="O7" s="0">
-        <v>305.50072839506157</v>
+        <v>4.199228395061656</v>
       </c>
       <c r="P7" s="0">
         <v>253.14412323864909</v>
@@ -557,10 +557,10 @@
         <v>16.132265804901678</v>
       </c>
       <c r="N8" s="0">
-        <v>257.74884313725494</v>
+        <v>38.295509803921703</v>
       </c>
       <c r="O8" s="0">
-        <v>162.82175183132367</v>
+        <v>17.785639318811558</v>
       </c>
       <c r="P8" s="0">
         <v>83.270458655521409</v>
@@ -610,10 +610,10 @@
         <v>7.2915476180757857</v>
       </c>
       <c r="N9" s="0">
-        <v>117.15584108946607</v>
+        <v>54.936295634920604</v>
       </c>
       <c r="O9" s="0">
-        <v>43.28518335230283</v>
+        <v>20.657216272265384</v>
       </c>
       <c r="P9" s="0">
         <v>118.33904970334234</v>
@@ -663,10 +663,10 @@
         <v>10.711170181948686</v>
       </c>
       <c r="N10" s="0">
-        <v>96.354627496159779</v>
+        <v>26.811683908046017</v>
       </c>
       <c r="O10" s="0">
-        <v>51.332148006698183</v>
+        <v>7.3044030310590253</v>
       </c>
       <c r="P10" s="0">
         <v>95.194464844370614</v>
@@ -716,10 +716,10 @@
         <v>18.372874026673127</v>
       </c>
       <c r="N11" s="0">
-        <v>127.1013737060041</v>
+        <v>49.272329545454497</v>
       </c>
       <c r="O11" s="0">
-        <v>40.645243770063978</v>
+        <v>14.94961823921702</v>
       </c>
       <c r="P11" s="0">
         <v>61.021358264764288</v>
@@ -769,10 +769,10 @@
         <v>5.4217924465377072</v>
       </c>
       <c r="N12" s="0">
-        <v>222.01591666666653</v>
+        <v>32.859214285714131</v>
       </c>
       <c r="O12" s="0">
-        <v>193.05319351500069</v>
+        <v>13.546790073955686</v>
       </c>
       <c r="P12" s="0">
         <v>60.442991085239044</v>
@@ -822,10 +822,10 @@
         <v>10.242883708539635</v>
       </c>
       <c r="N13" s="0">
-        <v>131.38006477732793</v>
+        <v>51.612393198906368</v>
       </c>
       <c r="O13" s="0">
-        <v>34.427451776658629</v>
+        <v>13.215486776761871</v>
       </c>
       <c r="P13" s="0">
         <v>74.505491586046276</v>
@@ -875,10 +875,10 @@
         <v>8.429857650043683</v>
       </c>
       <c r="N14" s="0">
-        <v>84.06647228506796</v>
+        <v>21.249597285067949</v>
       </c>
       <c r="O14" s="0">
-        <v>62.929509334137244</v>
+        <v>3.4716854082626449</v>
       </c>
       <c r="P14" s="0">
         <v>61.849217835022522</v>
@@ -981,10 +981,10 @@
         <v>13.021616643105418</v>
       </c>
       <c r="N16" s="0">
-        <v>113.79227380952379</v>
+        <v>20.528898809523792</v>
       </c>
       <c r="O16" s="0">
-        <v>91.069599551942488</v>
+        <v>11.595397687961592</v>
       </c>
       <c r="P16" s="0">
         <v>66.662089047143738</v>
@@ -1034,10 +1034,10 @@
         <v>10.061270628835439</v>
       </c>
       <c r="N17" s="0">
-        <v>115.96953869047618</v>
+        <v>17.501538690476224</v>
       </c>
       <c r="O17" s="0">
-        <v>70.291276155621318</v>
+        <v>5.7834306948121403</v>
       </c>
       <c r="P17" s="0">
         <v>71.380602106367732</v>
@@ -1136,10 +1136,10 @@
         <v>23.797758998135379</v>
       </c>
       <c r="N19" s="0">
-        <v>147.12807692307683</v>
+        <v>95.507499999999965</v>
       </c>
       <c r="O19" s="0">
-        <v>124.50807692307683</v>
+        <v>72.88749999999996</v>
       </c>
       <c r="P19" s="0">
         <v>59.82145489760461</v>
@@ -1242,10 +1242,10 @@
         <v>18.351506144667738</v>
       </c>
       <c r="N21" s="0">
-        <v>171.12352130325806</v>
+        <v>57.455481792717045</v>
       </c>
       <c r="O21" s="0">
-        <v>92.757489371524173</v>
+        <v>14.567399460880212</v>
       </c>
       <c r="P21" s="0">
         <v>131.14162865217881</v>
@@ -1295,10 +1295,10 @@
         <v>9.207484877955423</v>
       </c>
       <c r="N22" s="0">
-        <v>154.30480341880343</v>
+        <v>50.14285353535351</v>
       </c>
       <c r="O22" s="0">
-        <v>34.836998057684639</v>
+        <v>19.483008015306126</v>
       </c>
       <c r="P22" s="0">
         <v>184.54345251674729</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>315.25999999999999</v>
+        <v>116.09142857142862</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>1.2018504251546631</v>
       </c>
       <c r="N24" s="0">
-        <v>193.94226190476198</v>
+        <v>71.404246031746098</v>
       </c>
       <c r="O24" s="0">
-        <v>64.546990462261391</v>
+        <v>14.97790107485528</v>
       </c>
       <c r="P24" s="0">
         <v>135.36147039755053</v>
@@ -1454,10 +1454,10 @@
         <v>15.719768163402129</v>
       </c>
       <c r="N25" s="0">
-        <v>141.20233333333331</v>
+        <v>84.806277777777737</v>
       </c>
       <c r="O25" s="0">
-        <v>26.809651749433957</v>
+        <v>14.261533771709251</v>
       </c>
       <c r="P25" s="0">
         <v>89.13695704326004</v>
@@ -1507,10 +1507,10 @@
         <v>11.89304184994085</v>
       </c>
       <c r="N26" s="0">
-        <v>103.55441798941801</v>
+        <v>78.921686507936542</v>
       </c>
       <c r="O26" s="0">
-        <v>31.842857207617705</v>
+        <v>7.371768364275332</v>
       </c>
       <c r="P26" s="0">
         <v>108.15475427996523</v>
@@ -1560,10 +1560,10 @@
         <v>9.4044906531105923</v>
       </c>
       <c r="N27" s="0">
-        <v>259.80317460317463</v>
+        <v>88.203472222222217</v>
       </c>
       <c r="O27" s="0">
-        <v>181.81741983243114</v>
+        <v>37.358189654726885</v>
       </c>
       <c r="P27" s="0">
         <v>67.453179995532537</v>
@@ -1613,10 +1613,10 @@
         <v>14.847371634213394</v>
       </c>
       <c r="N28" s="0">
-        <v>187.92211640211642</v>
+        <v>46.753148148148135</v>
       </c>
       <c r="O28" s="0">
-        <v>107.7609416840225</v>
+        <v>12.700387426178546</v>
       </c>
       <c r="P28" s="0">
         <v>49.909091132794707</v>
@@ -1666,10 +1666,10 @@
         <v>16.333333333333332</v>
       </c>
       <c r="N29" s="0">
-        <v>242.66604797979792</v>
+        <v>61.295128205128172</v>
       </c>
       <c r="O29" s="0">
-        <v>85.094911956049671</v>
+        <v>14.953129968111268</v>
       </c>
       <c r="P29" s="0">
         <v>208.23127448771447</v>
@@ -1719,10 +1719,10 @@
         <v>5.9254629448770597</v>
       </c>
       <c r="N30" s="0">
-        <v>475.97514814814809</v>
+        <v>61.515793650793704</v>
       </c>
       <c r="O30" s="0">
-        <v>189.44740330327915</v>
+        <v>20.913070271233842</v>
       </c>
       <c r="P30" s="0">
         <v>107.74190013548792</v>
@@ -1772,10 +1772,10 @@
         <v>4.1766546953805559</v>
       </c>
       <c r="N31" s="0">
-        <v>304.37674857549854</v>
+        <v>81.692669552669585</v>
       </c>
       <c r="O31" s="0">
-        <v>157.7987128212724</v>
+        <v>11.315688922223041</v>
       </c>
       <c r="P31" s="0">
         <v>143.33137566805161</v>
@@ -1825,10 +1825,10 @@
         <v>9.5277372853043012</v>
       </c>
       <c r="N32" s="0">
-        <v>375.290202020202</v>
+        <v>109.52444444444444</v>
       </c>
       <c r="O32" s="0">
-        <v>169.71056913701193</v>
+        <v>86.741799085803933</v>
       </c>
       <c r="P32" s="0">
         <v>74.186329358820686</v>
@@ -1878,10 +1878,10 @@
         <v>15.835964693626272</v>
       </c>
       <c r="N33" s="0">
-        <v>313.52541666666667</v>
+        <v>46.538888888888799</v>
       </c>
       <c r="O33" s="0">
-        <v>156.1473641513798</v>
+        <v>13.484769403449047</v>
       </c>
       <c r="P33" s="0">
         <v>104.33947060573014</v>
@@ -2033,10 +2033,10 @@
         <v>6.6916199666282443</v>
       </c>
       <c r="N36" s="0">
-        <v>33.977886002886017</v>
+        <v>23.327492063492059</v>
       </c>
       <c r="O36" s="0">
-        <v>13.172894507551444</v>
+        <v>12.129023777603949</v>
       </c>
       <c r="P36" s="0">
         <v>53.720718787482781</v>
@@ -2086,10 +2086,10 @@
         <v>17.899604278679831</v>
       </c>
       <c r="N37" s="0">
-        <v>65.366862207602395</v>
+        <v>30.254586148648709</v>
       </c>
       <c r="O37" s="0">
-        <v>32.454443000967174</v>
+        <v>7.8304163339689703</v>
       </c>
       <c r="P37" s="0">
         <v>112.19959175674629</v>
@@ -2139,10 +2139,10 @@
         <v>8.6156350123868801</v>
       </c>
       <c r="N38" s="0">
-        <v>103.38541508838385</v>
+        <v>50.206674107142874</v>
       </c>
       <c r="O38" s="0">
-        <v>53.774902697870658</v>
+        <v>16.779660397727092</v>
       </c>
       <c r="P38" s="0">
         <v>94.238180650650094</v>
@@ -2192,10 +2192,10 @@
         <v>12.5</v>
       </c>
       <c r="N39" s="0">
-        <v>56.548749999999984</v>
+        <v>19.181194444444394</v>
       </c>
       <c r="O39" s="0">
-        <v>49.615250000000039</v>
+        <v>12.247694444444457</v>
       </c>
       <c r="P39" s="0">
         <v>47.681277951699471</v>
@@ -2245,10 +2245,10 @@
         <v>11.685995892520243</v>
       </c>
       <c r="N40" s="0">
-        <v>58.356144480519482</v>
+        <v>19.752234848484818</v>
       </c>
       <c r="O40" s="0">
-        <v>39.025444277436456</v>
+        <v>9.3922257094809485</v>
       </c>
       <c r="P40" s="0">
         <v>66.345643537008328</v>
@@ -2298,10 +2298,10 @@
         <v>5.634713834792322</v>
       </c>
       <c r="N41" s="0">
-        <v>98.323651789386957</v>
+        <v>23.260818181818067</v>
       </c>
       <c r="O41" s="0">
-        <v>43.959531955662413</v>
+        <v>10.555065068933848</v>
       </c>
       <c r="P41" s="0">
         <v>64.777571457735448</v>
@@ -2351,10 +2351,10 @@
         <v>12.935738607954837</v>
       </c>
       <c r="N42" s="0">
-        <v>157.92080176767675</v>
+        <v>20.222728354978337</v>
       </c>
       <c r="O42" s="0">
-        <v>83.227737171056702</v>
+        <v>5.9933867424435663</v>
       </c>
       <c r="P42" s="0">
         <v>50.256551304898892</v>
@@ -2404,10 +2404,10 @@
         <v>16.131620088096131</v>
       </c>
       <c r="N43" s="0">
-        <v>65.46980357142867</v>
+        <v>27.416072510822609</v>
       </c>
       <c r="O43" s="0">
-        <v>42.191087062516566</v>
+        <v>13.23243393971703</v>
       </c>
       <c r="P43" s="0">
         <v>64.147899335807864</v>
@@ -2457,10 +2457,10 @@
         <v>7.3979163733220625</v>
       </c>
       <c r="N44" s="0">
-        <v>76.725373376623381</v>
+        <v>24.224214285714282</v>
       </c>
       <c r="O44" s="0">
-        <v>69.106430857045268</v>
+        <v>16.815803317492268</v>
       </c>
       <c r="P44" s="0">
         <v>63.31241883365562</v>
@@ -2510,10 +2510,10 @@
         <v>11.360567767501763</v>
       </c>
       <c r="N45" s="0">
-        <v>51.138666666666744</v>
+        <v>31.337444444444515</v>
       </c>
       <c r="O45" s="0">
-        <v>40.114655891304643</v>
+        <v>20.464494641804539</v>
       </c>
       <c r="P45" s="0">
         <v>64.238335695371177</v>
@@ -2616,10 +2616,10 @@
         <v>15.195256935416833</v>
       </c>
       <c r="N47" s="0">
-        <v>28.258526785714359</v>
+        <v>16.03179876373634</v>
       </c>
       <c r="O47" s="0">
-        <v>9.0461220240131937</v>
+        <v>8.3499649550147286</v>
       </c>
       <c r="P47" s="0">
         <v>79.812837679384813</v>
@@ -2669,10 +2669,10 @@
         <v>11.145813862911343</v>
       </c>
       <c r="N48" s="0">
-        <v>47.795265700483078</v>
+        <v>32.121840728715725</v>
       </c>
       <c r="O48" s="0">
-        <v>27.238849941220227</v>
+        <v>18.971764165521936</v>
       </c>
       <c r="P48" s="0">
         <v>73.660580051462745</v>
@@ -2722,10 +2722,10 @@
         <v>11.778334630441888</v>
       </c>
       <c r="N49" s="0">
-        <v>88.2486706349207</v>
+        <v>27.427434523809591</v>
       </c>
       <c r="O49" s="0">
-        <v>51.947599644891973</v>
+        <v>19.976798686184338</v>
       </c>
       <c r="P49" s="0">
         <v>58.745823293261395</v>
@@ -2824,10 +2824,10 @@
         <v>11.678862672937521</v>
       </c>
       <c r="N51" s="0">
-        <v>199.02467307692302</v>
+        <v>29.712846590909056</v>
       </c>
       <c r="O51" s="0">
-        <v>83.158139318497049</v>
+        <v>10.768030407676932</v>
       </c>
       <c r="P51" s="0">
         <v>56.220744202549618</v>
@@ -2877,10 +2877,10 @@
         <v>4.0926763859362252</v>
       </c>
       <c r="N52" s="0">
-        <v>123.76519444444445</v>
+        <v>26.572361111111075</v>
       </c>
       <c r="O52" s="0">
-        <v>96.563654110602727</v>
+        <v>3.896066672057469</v>
       </c>
       <c r="P52" s="0">
         <v>57.096024507691922</v>
@@ -2930,10 +2930,10 @@
         <v>7.1922991224410753</v>
       </c>
       <c r="N53" s="0">
-        <v>396.74887121212117</v>
+        <v>39.231500000000104</v>
       </c>
       <c r="O53" s="0">
-        <v>320.97552634128039</v>
+        <v>5.9421480473535064</v>
       </c>
       <c r="P53" s="0">
         <v>114.90023813898675</v>
@@ -2983,10 +2983,10 @@
         <v>8.3404136588061384</v>
       </c>
       <c r="N54" s="0">
-        <v>134.40125000000003</v>
+        <v>38.920634469697013</v>
       </c>
       <c r="O54" s="0">
-        <v>67.057948079527264</v>
+        <v>16.628326478316175</v>
       </c>
       <c r="P54" s="0">
         <v>95.023410332767327</v>
@@ -3036,10 +3036,10 @@
         <v>7.5</v>
       </c>
       <c r="N55" s="0">
-        <v>587.1704545454545</v>
+        <v>33.225454545454518</v>
       </c>
       <c r="O55" s="0">
-        <v>570.04954545454541</v>
+        <v>16.104545454545466</v>
       </c>
       <c r="P55" s="0">
         <v>120.13736051271005</v>
@@ -3089,10 +3089,10 @@
         <v>4.1932485418030412</v>
       </c>
       <c r="N56" s="0">
-        <v>347.29934920634918</v>
+        <v>59.934339285714273</v>
       </c>
       <c r="O56" s="0">
-        <v>158.54349546179873</v>
+        <v>10.298667257552358</v>
       </c>
       <c r="P56" s="0">
         <v>61.087244108135195</v>
@@ -3142,10 +3142,10 @@
         <v>7.9201746613737418</v>
       </c>
       <c r="N57" s="0">
-        <v>708.12724358974367</v>
+        <v>43.623451923076907</v>
       </c>
       <c r="O57" s="0">
-        <v>561.21766446431354</v>
+        <v>13.467138560894677</v>
       </c>
       <c r="P57" s="0">
         <v>59.918759272660409</v>
@@ -3195,10 +3195,10 @@
         <v>4.7147817199385456</v>
       </c>
       <c r="N58" s="0">
-        <v>142.98126893939397</v>
+        <v>62.995941558441586</v>
       </c>
       <c r="O58" s="0">
-        <v>36.959966323550475</v>
+        <v>17.897303865170674</v>
       </c>
       <c r="P58" s="0">
         <v>75.952174842019758</v>
@@ -3248,10 +3248,10 @@
         <v>18.605554726120548</v>
       </c>
       <c r="N59" s="0">
-        <v>306.30527777777775</v>
+        <v>70.254633838383867</v>
       </c>
       <c r="O59" s="0">
-        <v>144.64282161794904</v>
+        <v>32.761043426941619</v>
       </c>
       <c r="P59" s="0">
         <v>42.255216679264713</v>
@@ -3301,10 +3301,10 @@
         <v>3.7638632635454048</v>
       </c>
       <c r="N60" s="0">
-        <v>180.63086507936512</v>
+        <v>24.253809523809565</v>
       </c>
       <c r="O60" s="0">
-        <v>56.827780897825768</v>
+        <v>7.1181346225352238</v>
       </c>
       <c r="P60" s="0">
         <v>33.331271553867516</v>
@@ -3407,10 +3407,10 @@
         <v>10.230672835481871</v>
       </c>
       <c r="N62" s="0">
-        <v>192.07601190476191</v>
+        <v>32.636602564102589</v>
       </c>
       <c r="O62" s="0">
-        <v>142.6828567917467</v>
+        <v>4.3821312093242275</v>
       </c>
       <c r="P62" s="0">
         <v>37.897737798460241</v>
@@ -3460,10 +3460,10 @@
         <v>21.459263733874934</v>
       </c>
       <c r="N63" s="0">
-        <v>615.06807878151267</v>
+        <v>44.965821078431361</v>
       </c>
       <c r="O63" s="0">
-        <v>460.5257697598081</v>
+        <v>15.491924080099956</v>
       </c>
       <c r="P63" s="0">
         <v>54.455336742364189</v>
@@ -3513,10 +3513,10 @@
         <v>23.792068005955262</v>
       </c>
       <c r="N64" s="0">
-        <v>112.15200541795659</v>
+        <v>42.953172084623219</v>
       </c>
       <c r="O64" s="0">
-        <v>71.500120010883265</v>
+        <v>19.503088376186739</v>
       </c>
       <c r="P64" s="0">
         <v>49.359967524618412</v>
@@ -3566,10 +3566,10 @@
         <v>16.064323826417343</v>
       </c>
       <c r="N65" s="0">
-        <v>28.478772522522533</v>
+        <v>17.977993537015287</v>
       </c>
       <c r="O65" s="0">
-        <v>12.265467204347953</v>
+        <v>5.5636386828147879</v>
       </c>
       <c r="P65" s="0">
         <v>52.883651201847584</v>
